--- a/biology/Botanique/Hormosira/Hormosira.xlsx
+++ b/biology/Botanique/Hormosira/Hormosira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormosira est un genre d'algues brunes de l’ordre des Fucales et de la famille des Hormosiraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Hormosira dérive du grec ὅρμος / ormos, collier, et  σειρά / seirá,  « corde ; chaine ; lasso ; corde à nœuds coulants  », littéralement « collier de cordes » ou « corde à nœuds », en référence à la forme de l'algue « composée d'une série d'entre-nœuds gonflés, de caractère similaire à des vésicules »[1]. La description originale de Stephan Endlicher rapproche du genre Hormosira les genres Moniliformia, Lamx. et Monilia, A. Rich., tous deux issus du mot latin monile, collier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Hormosira dérive du grec ὅρμος / ormos, collier, et  σειρά / seirá,  « corde ; chaine ; lasso ; corde à nœuds coulants  », littéralement « collier de cordes » ou « corde à nœuds », en référence à la forme de l'algue « composée d'une série d'entre-nœuds gonflés, de caractère similaire à des vésicules ». La description originale de Stephan Endlicher rapproche du genre Hormosira les genres Moniliformia, Lamx. et Monilia, A. Rich., tous deux issus du mot latin monile, collier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 novembre 2021)[3], le genre contient les espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 novembre 2021), le genre contient les espèces suivantes :
 Hormosira banksii (Turner) Decaisne, 1842
 Hormosira pumila Kützing, 1854
 Noms en synonymie:
